--- a/biology/Neurosciences/Nerf_intercostal/Nerf_intercostal.xlsx
+++ b/biology/Neurosciences/Nerf_intercostal/Nerf_intercostal.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les nerfs intercostaux (ou rameaux ventraux des nerfs dorsaux ou rameaux antérieurs des nerfs thoraciques) sont les onze paires de nerfs issus des branches antérieures des onze premiers nerfs thoraciques (T1-T11).
 </t>
@@ -513,26 +525,19 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Nerfs intercostaux supérieurs : du premier au sixième nerf intercostal
-Dés leur naissance les nerfs intercostaux supérieurs entrent dans l'espace intercostal sous le fascia endothoracique. Ils se rapprochent de la côte sus-jacente. Ils accompagnent les artères intercostales postérieures au-dessus dans leur tiers postérieure et en dessous dans le reste de leur parcours.
+          <t>Nerfs intercostaux supérieurs : du premier au sixième nerf intercostal</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dés leur naissance les nerfs intercostaux supérieurs entrent dans l'espace intercostal sous le fascia endothoracique. Ils se rapprochent de la côte sus-jacente. Ils accompagnent les artères intercostales postérieures au-dessus dans leur tiers postérieure et en dessous dans le reste de leur parcours.
 A l'arrière, ils cheminent entre les muscles intercostaux externe et intime, puis entre ce dernier muscle et le muscle intercostal interne et en avant entre ce dernier muscle et le fascia endothoracique.
 Près du sternum, ils croisent l'artère thoracique interne et le muscle thoracique transverse.
 Au cours de leur trajet, ils fournissent de nombreuses branches musculaires qui innervent les muscles intercostaux, subcostaux, élévateurs des côtes, dentelé postérieur et supérieur et thoracique transverse.
 A mi-chemin entre la vertèbre et le sternum, ils donnent les rameaux cutanés latéraux pectoraux qui passe à travers les muscles intercostaux externes et dentelé antérieur. Ces branches se divisent en une branche antérieure et une branche postérieure.
 Ils se terminent par les rameaux cutanés antérieurs pectoraux.
 Les six premiers nerfs intercostaux ne quittent pas les espaces intercostaux correspondants. 
-Premier nerf intercostal
-La division antérieure du premier nerf thoracique se divise en deux branches. La plus grande branche quitte le thorax devant le col de la première côte et contribue au plexus brachial. 
-La plus petite branche forme le premier nerf intercostal. Il longe le premier espace intercostal et se termine à l'avant de la poitrine en tant que première branche cutanée antérieure des nerfs intercostaux, celle-ci est parfois absente.
-Le premier nerf intercostal dégage rarement une branche cutanée latérale ; mais envoie parfois une petite branche pour communiquer avec le nerf intercosto-brachial.
-Du deuxième nerf thoracique, il reçoit fréquemment un rameau de connexion, qui monte sur le col de la deuxième côte. Ce nerf a été décrit pour la première fois par Kuntz en 1927. Il existe des variations anatomiques considérables, mais ce nerf peut être présent dans 40 à 80 % de la population[1],[2].
-Deuxième nerf intercostal
-Le rameau cutané latéral du deuxième nerf intercostal donne le un ou deux nerfs intercosto-brachiaux.
-Quatrième nerf intercostal
-Le rameau cutané latéral du quatrième nerf intercostal donne les rameaux mammaires latéraux du nerf intercostal et le rameau cutané antérieur du quatrième nerf intercostal donne les rameaux mammaires médiaux du nerf intercostal.
-Ils reçoivent les influx des mécanorécepteurs cutanés de l'aréole. Leur activation déclenche la libération d'ocytocine qui, lorsqu'elle est dans le sang périphérique, provoque la contraction des cellules myoépithéliales et la lactation : c'est un exemple de réflexe musculaire non innervé.
-Nerfs intercostaux inférieurs : du septième au onzième nerf intercostal
-Les autres nerfs intercostaux quittent leurs espaces respectifs après les avoir parcouru, pour rejoindre la paroi abdominale antérieure et latérale. Dans la paroi abdominale ils cheminent entre les muscles oblique interne et transverse. Si le trajet des premiers nerfs intercostaux est globalement horizontal, celui des nerfs intermédiaires et plus encore des derniers nerfs intercostaux est oblique en avant et en bas. Ainsi, le onzième nerf intercostal qui a son origine près de la onzième vertèbre thoracique se termine en dessous de l'ombilic.
 </t>
         </is>
       </c>
@@ -558,10 +563,176 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Trajet</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Nerfs intercostaux supérieurs : du premier au sixième nerf intercostal</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Premier nerf intercostal</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La division antérieure du premier nerf thoracique se divise en deux branches. La plus grande branche quitte le thorax devant le col de la première côte et contribue au plexus brachial. 
+La plus petite branche forme le premier nerf intercostal. Il longe le premier espace intercostal et se termine à l'avant de la poitrine en tant que première branche cutanée antérieure des nerfs intercostaux, celle-ci est parfois absente.
+Le premier nerf intercostal dégage rarement une branche cutanée latérale ; mais envoie parfois une petite branche pour communiquer avec le nerf intercosto-brachial.
+Du deuxième nerf thoracique, il reçoit fréquemment un rameau de connexion, qui monte sur le col de la deuxième côte. Ce nerf a été décrit pour la première fois par Kuntz en 1927. Il existe des variations anatomiques considérables, mais ce nerf peut être présent dans 40 à 80 % de la population,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Nerf_intercostal</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Neurosciences/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Nerf_intercostal</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Trajet</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Nerfs intercostaux supérieurs : du premier au sixième nerf intercostal</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Deuxième nerf intercostal</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le rameau cutané latéral du deuxième nerf intercostal donne le un ou deux nerfs intercosto-brachiaux.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Nerf_intercostal</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Neurosciences/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Nerf_intercostal</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Trajet</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Nerfs intercostaux supérieurs : du premier au sixième nerf intercostal</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Quatrième nerf intercostal</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le rameau cutané latéral du quatrième nerf intercostal donne les rameaux mammaires latéraux du nerf intercostal et le rameau cutané antérieur du quatrième nerf intercostal donne les rameaux mammaires médiaux du nerf intercostal.
+Ils reçoivent les influx des mécanorécepteurs cutanés de l'aréole. Leur activation déclenche la libération d'ocytocine qui, lorsqu'elle est dans le sang périphérique, provoque la contraction des cellules myoépithéliales et la lactation : c'est un exemple de réflexe musculaire non innervé.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Nerf_intercostal</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Neurosciences/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Nerf_intercostal</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Trajet</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Nerfs intercostaux inférieurs : du septième au onzième nerf intercostal</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les autres nerfs intercostaux quittent leurs espaces respectifs après les avoir parcouru, pour rejoindre la paroi abdominale antérieure et latérale. Dans la paroi abdominale ils cheminent entre les muscles oblique interne et transverse. Si le trajet des premiers nerfs intercostaux est globalement horizontal, celui des nerfs intermédiaires et plus encore des derniers nerfs intercostaux est oblique en avant et en bas. Ainsi, le onzième nerf intercostal qui a son origine près de la onzième vertèbre thoracique se termine en dessous de l'ombilic.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Nerf_intercostal</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Neurosciences/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Nerf_intercostal</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Zone d'innervation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Les nerfs intercostaux innervent plusieurs muscles du thorax, et de l'abdomen :
 les muscles intercostaux externes, internes et intimes,
